--- a/data/trans_orig/P13_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12570</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6778</v>
+        <v>6944</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20592</v>
+        <v>20698</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01811259737874704</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009766525580500918</v>
+        <v>0.01000582194045688</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02967061968603088</v>
+        <v>0.02982320605436661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>13676</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7227</v>
+        <v>7495</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21862</v>
+        <v>22907</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01986772872728134</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01049918452146999</v>
+        <v>0.01088891061523641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03176044281981675</v>
+        <v>0.03327876939611941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>26246</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17436</v>
+        <v>17601</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37557</v>
+        <v>37506</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01898656921855747</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01261292028926492</v>
+        <v>0.01273280451080431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02716857120707427</v>
+        <v>0.02713174375394766</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>681442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>673420</v>
+        <v>673314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687234</v>
+        <v>687068</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.981887402621253</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9703293803139692</v>
+        <v>0.9701767939456329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.990233474419499</v>
+        <v>0.9899941780595429</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>683</v>
@@ -836,19 +836,19 @@
         <v>674675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>666489</v>
+        <v>665444</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>681124</v>
+        <v>680856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9801322712727186</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9682395571801837</v>
+        <v>0.9667212306038806</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.98950081547853</v>
+        <v>0.9891110893847636</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1353</v>
@@ -857,19 +857,19 @@
         <v>1356117</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1344806</v>
+        <v>1344857</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1364927</v>
+        <v>1364762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9810134307814425</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9728314287929257</v>
+        <v>0.9728682562460524</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.987387079710735</v>
+        <v>0.9872671954891963</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>38907</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27527</v>
+        <v>27657</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52671</v>
+        <v>52477</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04045234267595857</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0286205328426565</v>
+        <v>0.0287553357335074</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05476341971084644</v>
+        <v>0.05456111444679636</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -982,19 +982,19 @@
         <v>42046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29953</v>
+        <v>29364</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56561</v>
+        <v>56326</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04341781061412373</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03093111249110341</v>
+        <v>0.03032259610995275</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05840713092171799</v>
+        <v>0.05816424977662817</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -1003,19 +1003,19 @@
         <v>80953</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64519</v>
+        <v>63454</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101957</v>
+        <v>99268</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04194014129046066</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03342610203895036</v>
+        <v>0.03287426604246069</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05282196478006351</v>
+        <v>0.05142912972812567</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>922893</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>909129</v>
+        <v>909323</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>934273</v>
+        <v>934143</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9595476573240415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9452365802891536</v>
+        <v>0.9454388855532037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9713794671573436</v>
+        <v>0.9712446642664926</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>871</v>
@@ -1053,19 +1053,19 @@
         <v>926347</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>911832</v>
+        <v>912067</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>938440</v>
+        <v>939029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9565821893858762</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9415928690782819</v>
+        <v>0.9418357502233717</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9690688875088965</v>
+        <v>0.9696774038900473</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1731</v>
@@ -1074,19 +1074,19 @@
         <v>1849240</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1828236</v>
+        <v>1830925</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1865674</v>
+        <v>1866739</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9580598587095394</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9471780352199366</v>
+        <v>0.9485708702718746</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9665738979610498</v>
+        <v>0.9671257339575396</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>22643</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14558</v>
+        <v>14358</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33836</v>
+        <v>35227</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03337214757970484</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02145621059878206</v>
+        <v>0.02116063548578616</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04986836300135409</v>
+        <v>0.05191819790664722</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1199,19 +1199,19 @@
         <v>37039</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26708</v>
+        <v>26319</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49074</v>
+        <v>49947</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05416364548098433</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03905529187474192</v>
+        <v>0.03848744078226816</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07176246269882774</v>
+        <v>0.07303962867597416</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -1220,19 +1220,19 @@
         <v>59683</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45047</v>
+        <v>46383</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76290</v>
+        <v>77431</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04380858460259994</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03306544761836667</v>
+        <v>0.03404627366873249</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05599874217099526</v>
+        <v>0.05683608119915781</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>655866</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>644673</v>
+        <v>643282</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663951</v>
+        <v>664151</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9666278524202951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9501316369986462</v>
+        <v>0.9480818020933527</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.978543789401218</v>
+        <v>0.9788393645142135</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>658</v>
@@ -1270,19 +1270,19 @@
         <v>646802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>634767</v>
+        <v>633894</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>657133</v>
+        <v>657522</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9458363545190157</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9282375373011722</v>
+        <v>0.9269603713240254</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9609447081252578</v>
+        <v>0.9615125592177315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1278</v>
@@ -1291,19 +1291,19 @@
         <v>1302667</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1286060</v>
+        <v>1284919</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1317303</v>
+        <v>1315967</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9561914153974</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9440012578290047</v>
+        <v>0.9431639188008422</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9669345523816325</v>
+        <v>0.9659537263312675</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>30290</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20573</v>
+        <v>19871</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43250</v>
+        <v>42163</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03214757320073323</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02183498810761767</v>
+        <v>0.02108934861408341</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.045902508876</v>
+        <v>0.04474800595563837</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -1416,19 +1416,19 @@
         <v>71132</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56785</v>
+        <v>56261</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89559</v>
+        <v>88051</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06848741258165283</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0546738278237536</v>
+        <v>0.05416897788245553</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08622995310776851</v>
+        <v>0.08477802267517653</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -1437,19 +1437,19 @@
         <v>101422</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84234</v>
+        <v>83675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122436</v>
+        <v>122439</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05120166429214143</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04252449093068331</v>
+        <v>0.04224213971410051</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06181020593337947</v>
+        <v>0.06181188273437686</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>911932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>898972</v>
+        <v>900059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>921649</v>
+        <v>922351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9678524267992668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.954097491124</v>
+        <v>0.9552519940443617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9781650118923824</v>
+        <v>0.9789106513859166</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>929</v>
@@ -1487,19 +1487,19 @@
         <v>967480</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>949053</v>
+        <v>950561</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>981827</v>
+        <v>982351</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9315125874183472</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9137700468922314</v>
+        <v>0.9152219773248235</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9453261721762464</v>
+        <v>0.9458310221175444</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1893</v>
@@ -1508,19 +1508,19 @@
         <v>1879412</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1858398</v>
+        <v>1858395</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1896600</v>
+        <v>1897159</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9487983357078585</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9381897940666206</v>
+        <v>0.9381881172656231</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9574755090693168</v>
+        <v>0.9577578602858997</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>104411</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85815</v>
+        <v>84326</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125707</v>
+        <v>127068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03186616967076493</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02619086527189032</v>
+        <v>0.02573628406722594</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0383658583692621</v>
+        <v>0.03878117757131101</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -1633,19 +1633,19 @@
         <v>163893</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141773</v>
+        <v>143395</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>192575</v>
+        <v>194395</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04850047052032394</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04195459116959203</v>
+        <v>0.0424346079365164</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05698838388880054</v>
+        <v>0.05752694927323557</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>256</v>
@@ -1654,19 +1654,19 @@
         <v>268304</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>236502</v>
+        <v>234229</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>302912</v>
+        <v>304141</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04031159862993554</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03553359574388249</v>
+        <v>0.03519206647901196</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04551139818993366</v>
+        <v>0.0456959943105485</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3172132</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3150836</v>
+        <v>3149475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3190728</v>
+        <v>3192217</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9681338303292351</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9616341416307379</v>
+        <v>0.9612188224286891</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9738091347281097</v>
+        <v>0.9742637159327741</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3141</v>
@@ -1704,19 +1704,19 @@
         <v>3215304</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3186622</v>
+        <v>3184802</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3237424</v>
+        <v>3235802</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9514995294796761</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9430116161111994</v>
+        <v>0.9424730507267643</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9580454088304079</v>
+        <v>0.9575653920634836</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6255</v>
@@ -1725,19 +1725,19 @@
         <v>6387437</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6352829</v>
+        <v>6351600</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6419239</v>
+        <v>6421512</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9596884013700645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9544886018100666</v>
+        <v>0.9543040056894516</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9644664042561176</v>
+        <v>0.9648079335209883</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>34388</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23935</v>
+        <v>23629</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48237</v>
+        <v>47021</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04895123844446226</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03407090094128466</v>
+        <v>0.03363528213673925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06866441108417336</v>
+        <v>0.06693385570036606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -2090,19 +2090,19 @@
         <v>76357</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60955</v>
+        <v>61182</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93764</v>
+        <v>93964</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1096909272426348</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08756448970328781</v>
+        <v>0.0878901734284773</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1346961158603027</v>
+        <v>0.134984060989513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>103</v>
@@ -2111,19 +2111,19 @@
         <v>110746</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90226</v>
+        <v>89543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132903</v>
+        <v>131514</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07918235560061272</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06451060106332437</v>
+        <v>0.06402222746916275</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09502418597049762</v>
+        <v>0.09403149114770018</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>668116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>654267</v>
+        <v>655483</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>678569</v>
+        <v>678875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9510487615555377</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9313355889158265</v>
+        <v>0.933066144299634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9659290990587154</v>
+        <v>0.9663647178632607</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>578</v>
@@ -2161,19 +2161,19 @@
         <v>619758</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>602351</v>
+        <v>602151</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>635160</v>
+        <v>634933</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8903090727573653</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8653038841396973</v>
+        <v>0.865015939010487</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.912435510296712</v>
+        <v>0.9121098265715226</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1219</v>
@@ -2182,19 +2182,19 @@
         <v>1287872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1265715</v>
+        <v>1267104</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1308392</v>
+        <v>1309075</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9208176443993873</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9049758140295026</v>
+        <v>0.9059685088523011</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9354893989366758</v>
+        <v>0.9359777725308377</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>49791</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37109</v>
+        <v>36021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65274</v>
+        <v>64532</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04891349510197345</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03645519561635971</v>
+        <v>0.03538550605375749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06412281952120688</v>
+        <v>0.06339410049911139</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -2307,19 +2307,19 @@
         <v>83576</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64833</v>
+        <v>66237</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101696</v>
+        <v>100490</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08105039085045092</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06287314040221977</v>
+        <v>0.06423544818462749</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0986219779746908</v>
+        <v>0.09745322756536216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -2328,19 +2328,19 @@
         <v>133368</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>111288</v>
+        <v>111020</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158825</v>
+        <v>156090</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06508559096980523</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05431055853481163</v>
+        <v>0.05417970381750903</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07750903290065866</v>
+        <v>0.07617443998917242</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>968156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>952673</v>
+        <v>953415</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>980838</v>
+        <v>981926</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9510865048980266</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9358771804787931</v>
+        <v>0.9366058995008881</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9635448043836402</v>
+        <v>0.9646144939462422</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>863</v>
@@ -2378,19 +2378,19 @@
         <v>947589</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>929469</v>
+        <v>930675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>966332</v>
+        <v>964928</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.918949609149549</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9013780220253091</v>
+        <v>0.9025467724346379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9371268595977802</v>
+        <v>0.9357645518153723</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1754</v>
@@ -2399,19 +2399,19 @@
         <v>1915744</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1890287</v>
+        <v>1893022</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1937824</v>
+        <v>1938092</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9349144090301947</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9224909670993413</v>
+        <v>0.9238255600108276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9456894414651884</v>
+        <v>0.945820296182491</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>30061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20651</v>
+        <v>19799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45361</v>
+        <v>41762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03972777544174634</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02729234339339856</v>
+        <v>0.02616539508658249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.059947601144285</v>
+        <v>0.05519080734263938</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -2524,19 +2524,19 @@
         <v>66392</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51911</v>
+        <v>51873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85827</v>
+        <v>85158</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08554895199694092</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06688881516118049</v>
+        <v>0.06684066022983105</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1105910184516469</v>
+        <v>0.1097285146112609</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -2545,19 +2545,19 @@
         <v>96454</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78346</v>
+        <v>79191</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117498</v>
+        <v>118032</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06292834043032215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05111473535576406</v>
+        <v>0.05166597763019813</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07665822093883147</v>
+        <v>0.07700666164416696</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>726615</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>711315</v>
+        <v>714914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>736025</v>
+        <v>736877</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9602722245582537</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9400523988557151</v>
+        <v>0.9448091926573607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9727076566066014</v>
+        <v>0.9738346049134177</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -2595,19 +2595,19 @@
         <v>709684</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>690249</v>
+        <v>690918</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>724165</v>
+        <v>724203</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9144510480030591</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8894089815483531</v>
+        <v>0.8902714853887391</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9331111848388195</v>
+        <v>0.933159339770169</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1305</v>
@@ -2616,19 +2616,19 @@
         <v>1436299</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1415255</v>
+        <v>1414721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1454407</v>
+        <v>1453562</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9370716595696779</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9233417790611683</v>
+        <v>0.9229933383558331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9488852646442356</v>
+        <v>0.9483340223698014</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>44700</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32438</v>
+        <v>33097</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60746</v>
+        <v>60801</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04721592822164764</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03426368284820162</v>
+        <v>0.03496009876923368</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06416533323019395</v>
+        <v>0.06422326162071706</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -2741,19 +2741,19 @@
         <v>105234</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86064</v>
+        <v>87520</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>127530</v>
+        <v>126185</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1000417719409205</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08181766105388953</v>
+        <v>0.08320145945337823</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1212375469674689</v>
+        <v>0.1199586600095749</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -2762,19 +2762,19 @@
         <v>149934</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>125223</v>
+        <v>129307</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173922</v>
+        <v>173780</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07501903029253847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06265489507279155</v>
+        <v>0.06469823039279728</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08702123740917571</v>
+        <v>0.08695021970493295</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>902009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>885963</v>
+        <v>885908</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>914271</v>
+        <v>913612</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9527840717783523</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9358346667698059</v>
+        <v>0.9357767383792828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9657363171517983</v>
+        <v>0.9650399012307662</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>904</v>
@@ -2812,19 +2812,19 @@
         <v>946667</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>924371</v>
+        <v>925716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>965837</v>
+        <v>964381</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8999582280590795</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8787624530325311</v>
+        <v>0.8800413399904251</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9181823389461103</v>
+        <v>0.9167985405466215</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1771</v>
@@ -2833,19 +2833,19 @@
         <v>1848676</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1824688</v>
+        <v>1824830</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1873387</v>
+        <v>1869303</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9249809697074616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9129787625908243</v>
+        <v>0.9130497802950672</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9373451049272086</v>
+        <v>0.9353017696072028</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>158941</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>134785</v>
+        <v>134242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>187089</v>
+        <v>185432</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04642178586886556</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03936657586934775</v>
+        <v>0.03920802502659371</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05464296265538473</v>
+        <v>0.05415908791128235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>306</v>
@@ -2958,19 +2958,19 @@
         <v>331560</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>298131</v>
+        <v>297330</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>370756</v>
+        <v>369083</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09325918014893159</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08385643015087663</v>
+        <v>0.08363102939344508</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1042838633596499</v>
+        <v>0.1038134439550011</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>452</v>
@@ -2979,19 +2979,19 @@
         <v>490501</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>448297</v>
+        <v>446950</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>541002</v>
+        <v>536990</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07028147173918139</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06423428006184508</v>
+        <v>0.06404127612497502</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07751756224071726</v>
+        <v>0.07694262922515806</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3264895</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3236747</v>
+        <v>3238404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3289051</v>
+        <v>3289594</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9535782141311344</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9453570373446151</v>
+        <v>0.9458409120887171</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9606334241306522</v>
+        <v>0.9607919749734062</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2989</v>
@@ -3029,19 +3029,19 @@
         <v>3223697</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3184501</v>
+        <v>3186174</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3257126</v>
+        <v>3257927</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9067408198510685</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8957161366403501</v>
+        <v>0.8961865560449989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9161435698491233</v>
+        <v>0.9163689706065549</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6049</v>
@@ -3050,19 +3050,19 @@
         <v>6488592</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6438091</v>
+        <v>6442103</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6530796</v>
+        <v>6532143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9297185282608186</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9224824377592827</v>
+        <v>0.9230573707748422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9357657199381549</v>
+        <v>0.9359587238750251</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>26277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17540</v>
+        <v>17691</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38331</v>
+        <v>38023</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03894041593456517</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02599230094315</v>
+        <v>0.02621616290038638</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05680297836172178</v>
+        <v>0.05634665455329333</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -3415,19 +3415,19 @@
         <v>43173</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30738</v>
+        <v>31910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57857</v>
+        <v>58059</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06434690995550907</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04581336494371289</v>
+        <v>0.04755993332157697</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08623282875765186</v>
+        <v>0.08653356131294203</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -3436,19 +3436,19 @@
         <v>69450</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55936</v>
+        <v>54357</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87804</v>
+        <v>89188</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05160722287855499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04156490519962533</v>
+        <v>0.04039166440265345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06524601996418067</v>
+        <v>0.06627442461617188</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>648523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>636469</v>
+        <v>636777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>657260</v>
+        <v>657109</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9610595840654348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9431970216382782</v>
+        <v>0.9436533454467078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.97400769905685</v>
+        <v>0.9737838370996137</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>625</v>
@@ -3486,19 +3486,19 @@
         <v>627767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>613083</v>
+        <v>612881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>640202</v>
+        <v>639030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9356530900444909</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9137671712423482</v>
+        <v>0.913466438687058</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9541866350562871</v>
+        <v>0.9524400666784233</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1251</v>
@@ -3507,19 +3507,19 @@
         <v>1276290</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1257936</v>
+        <v>1256552</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1289804</v>
+        <v>1291383</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.948392777121445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9347539800358196</v>
+        <v>0.9337255753838282</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9584350948003747</v>
+        <v>0.9596083355973467</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>27295</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18542</v>
+        <v>18203</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40052</v>
+        <v>39205</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0267216208162047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01815233624385082</v>
+        <v>0.01782078096210719</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0392103475562017</v>
+        <v>0.03838121230863488</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -3632,19 +3632,19 @@
         <v>46400</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32537</v>
+        <v>34194</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60564</v>
+        <v>63714</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04453235279067678</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03122789387022165</v>
+        <v>0.03281748455336587</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0581261610677173</v>
+        <v>0.06114957058071802</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -3653,19 +3653,19 @@
         <v>73695</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57359</v>
+        <v>56391</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91628</v>
+        <v>91174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03571534896229262</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02779851572785865</v>
+        <v>0.0273291953265487</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04440650249997247</v>
+        <v>0.04418670370522825</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>994163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>981406</v>
+        <v>982253</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1002916</v>
+        <v>1003255</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9732783791837953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9607896524437983</v>
+        <v>0.9616187876913651</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9818476637561492</v>
+        <v>0.9821792190378928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>935</v>
@@ -3703,19 +3703,19 @@
         <v>995532</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>981368</v>
+        <v>978218</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1009395</v>
+        <v>1007738</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9554676472093232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9418738389322826</v>
+        <v>0.9388504294192811</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9687721061297783</v>
+        <v>0.967182515446634</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1859</v>
@@ -3724,19 +3724,19 @@
         <v>1989695</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1971762</v>
+        <v>1972216</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2006031</v>
+        <v>2006999</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9642846510377073</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9555934975000271</v>
+        <v>0.9558132962947717</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9722014842721409</v>
+        <v>0.9726708046734514</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>27500</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17747</v>
+        <v>18671</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39962</v>
+        <v>41214</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03620514913223723</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02336560898322215</v>
+        <v>0.02458151515924664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05261203706836885</v>
+        <v>0.05426058086847443</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3849,19 +3849,19 @@
         <v>39891</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28153</v>
+        <v>28331</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53438</v>
+        <v>53317</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05089774724900288</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03592081694117936</v>
+        <v>0.03614883264037237</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06818307909848068</v>
+        <v>0.06802916307287085</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -3870,19 +3870,19 @@
         <v>67390</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51340</v>
+        <v>52086</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87451</v>
+        <v>84683</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04366658455913251</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0332667785167504</v>
+        <v>0.0337498962594112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05666491636932601</v>
+        <v>0.05487182630455243</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>732052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>719590</v>
+        <v>718338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>741805</v>
+        <v>740881</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9637948508677627</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9473879629316311</v>
+        <v>0.9457394191315255</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9766343910167778</v>
+        <v>0.9754184848407532</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>700</v>
@@ -3920,19 +3920,19 @@
         <v>743849</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>730302</v>
+        <v>730423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>755587</v>
+        <v>755409</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9491022527509971</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9318169209015194</v>
+        <v>0.9319708369271291</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9640791830588207</v>
+        <v>0.9638511673596277</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1371</v>
@@ -3941,19 +3941,19 @@
         <v>1475902</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1455841</v>
+        <v>1458609</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1491952</v>
+        <v>1491206</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9563334154408675</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9433350836306741</v>
+        <v>0.9451281736954473</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9667332214832497</v>
+        <v>0.9662501037405886</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>36509</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25869</v>
+        <v>24709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49797</v>
+        <v>49810</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0389404455090105</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02759212832177071</v>
+        <v>0.02635445002539708</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0531127705238927</v>
+        <v>0.05312722777127529</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -4066,19 +4066,19 @@
         <v>66217</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50025</v>
+        <v>50458</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84620</v>
+        <v>85340</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06349366108520327</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04796767447278866</v>
+        <v>0.04838309815751995</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08113968011629641</v>
+        <v>0.08183002798641499</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -4087,19 +4087,19 @@
         <v>102726</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82156</v>
+        <v>82440</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124973</v>
+        <v>123341</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05186995023867846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0414834808535875</v>
+        <v>0.04162684419033796</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06310314774500214</v>
+        <v>0.06227894463563443</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>901058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>887770</v>
+        <v>887757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>911698</v>
+        <v>912858</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9610595544909895</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9468872294761062</v>
+        <v>0.9468727722287247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9724078716782288</v>
+        <v>0.9736455499746031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>901</v>
@@ -4137,19 +4137,19 @@
         <v>976675</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>958272</v>
+        <v>957552</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>992867</v>
+        <v>992434</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9365063389147967</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9188603198837035</v>
+        <v>0.918169972013585</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9520323255272113</v>
+        <v>0.95161690184248</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1798</v>
@@ -4158,19 +4158,19 @@
         <v>1877733</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1855486</v>
+        <v>1857118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1898303</v>
+        <v>1898019</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9481300497613215</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9368968522549979</v>
+        <v>0.9377210553643656</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9585165191464124</v>
+        <v>0.9583731558096621</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>117581</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97723</v>
+        <v>96235</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>139322</v>
+        <v>138360</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03465013591691826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02879824372799816</v>
+        <v>0.02835955402018472</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04105710951129424</v>
+        <v>0.04077339871287977</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -4283,19 +4283,19 @@
         <v>195680</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167286</v>
+        <v>168309</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>227223</v>
+        <v>227679</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0552846470732063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04726268506121068</v>
+        <v>0.04755147765662992</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06419627403786637</v>
+        <v>0.06432513619196539</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>284</v>
@@ -4304,19 +4304,19 @@
         <v>313261</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>277821</v>
+        <v>278933</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>346795</v>
+        <v>349422</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04518485086007707</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04007295547795537</v>
+        <v>0.04023335958409779</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05002183748581523</v>
+        <v>0.05040070714477934</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3275797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3254056</v>
+        <v>3255018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3295655</v>
+        <v>3297143</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9653498640830818</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9589428904887058</v>
+        <v>0.9592266012871202</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9712017562720018</v>
+        <v>0.9716404459798154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3161</v>
@@ -4354,19 +4354,19 @@
         <v>3343824</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3312281</v>
+        <v>3311825</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3372218</v>
+        <v>3371195</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9447153529267937</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9358037259621335</v>
+        <v>0.9356748638080346</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9527373149387888</v>
+        <v>0.9524485223433701</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6279</v>
@@ -4375,19 +4375,19 @@
         <v>6619620</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6586086</v>
+        <v>6583459</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6655060</v>
+        <v>6653948</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9548151491399229</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9499781625141844</v>
+        <v>0.9495992928552204</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9599270445220446</v>
+        <v>0.9597666404159021</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>41775</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30421</v>
+        <v>30817</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56405</v>
+        <v>55345</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06066273059053998</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04417558364194017</v>
+        <v>0.04475044921100321</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08190820087425355</v>
+        <v>0.08036919455035643</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>107</v>
@@ -4740,19 +4740,19 @@
         <v>50297</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41144</v>
+        <v>40754</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60787</v>
+        <v>61023</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06889197914672271</v>
+        <v>0.06889197914672274</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05635598822777071</v>
+        <v>0.0558208932320364</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08326059474704893</v>
+        <v>0.08358392655275575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>159</v>
@@ -4761,19 +4761,19 @@
         <v>92071</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77895</v>
+        <v>77305</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111367</v>
+        <v>110241</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06489754081295386</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05490552042861083</v>
+        <v>0.05448915286334553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07849824381864119</v>
+        <v>0.07770440191229983</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>646863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>632233</v>
+        <v>633293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>658217</v>
+        <v>657821</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9393372694094599</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9180917991257463</v>
+        <v>0.9196308054496438</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9558244163580598</v>
+        <v>0.9552495507889966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1127</v>
@@ -4811,19 +4811,19 @@
         <v>679781</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>669291</v>
+        <v>669055</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>688934</v>
+        <v>689324</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9311080208532774</v>
+        <v>0.9311080208532773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9167394052529509</v>
+        <v>0.9164160734472442</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9436440117722291</v>
+        <v>0.9441791067679635</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1803</v>
@@ -4832,19 +4832,19 @@
         <v>1326646</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1307350</v>
+        <v>1308476</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1340822</v>
+        <v>1341412</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9351024591870462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.921501756181359</v>
+        <v>0.9222955980876991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9450944795713891</v>
+        <v>0.9455108471366539</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>38802</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28274</v>
+        <v>28928</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51290</v>
+        <v>52690</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03699260532147104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02695588505828895</v>
+        <v>0.02757881593065697</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04889803723761311</v>
+        <v>0.05023237494026155</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -4957,19 +4957,19 @@
         <v>76679</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64989</v>
+        <v>63703</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90865</v>
+        <v>91779</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07169956258911554</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06076879801677472</v>
+        <v>0.05956679118048987</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08496453482241023</v>
+        <v>0.0858188390287646</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>172</v>
@@ -4978,19 +4978,19 @@
         <v>115481</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97590</v>
+        <v>97744</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134261</v>
+        <v>134629</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05451425623597617</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04606838243354794</v>
+        <v>0.04614132384490088</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06337971639270389</v>
+        <v>0.06355340565736231</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1010115</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>997627</v>
+        <v>996227</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1020643</v>
+        <v>1019989</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.963007394678529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9511019627623869</v>
+        <v>0.9497676250597381</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9730441149417109</v>
+        <v>0.9724211840693427</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1387</v>
@@ -5028,19 +5028,19 @@
         <v>992767</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>978581</v>
+        <v>977667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1004457</v>
+        <v>1005743</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9283004374108846</v>
+        <v>0.9283004374108845</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9150354651775898</v>
+        <v>0.9141811609712355</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9392312019832253</v>
+        <v>0.9404332088195099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2305</v>
@@ -5049,19 +5049,19 @@
         <v>2002882</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1984102</v>
+        <v>1983734</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2020773</v>
+        <v>2020619</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9454857437640237</v>
+        <v>0.9454857437640236</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.936620283607296</v>
+        <v>0.9364465943426378</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9539316175664522</v>
+        <v>0.9538586761550993</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>47110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35175</v>
+        <v>33835</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64523</v>
+        <v>64651</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05866195573198247</v>
+        <v>0.05866195573198248</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04380025135854612</v>
+        <v>0.04213160959471808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08034517084840698</v>
+        <v>0.08050504342015331</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -5174,19 +5174,19 @@
         <v>55548</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44368</v>
+        <v>44977</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68937</v>
+        <v>70056</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06842753485677978</v>
+        <v>0.06842753485677981</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05465464244291646</v>
+        <v>0.05540467500131062</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08492033954016896</v>
+        <v>0.08629861184230915</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -5195,19 +5195,19 @@
         <v>102658</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84834</v>
+        <v>84315</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122049</v>
+        <v>123594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06357107959237657</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05253328815073544</v>
+        <v>0.05221230954585195</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07557922767749617</v>
+        <v>0.07653568317028035</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>755963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>738550</v>
+        <v>738422</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>767898</v>
+        <v>769238</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9413380442680177</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9196548291515927</v>
+        <v>0.9194949565798466</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9561997486414539</v>
+        <v>0.9578683904052818</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>966</v>
@@ -5245,19 +5245,19 @@
         <v>756234</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>742845</v>
+        <v>741726</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>767414</v>
+        <v>766805</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9315724651432203</v>
+        <v>0.9315724651432201</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9150796604598311</v>
+        <v>0.9137013881576908</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9453453575570837</v>
+        <v>0.9445953249986893</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1599</v>
@@ -5266,19 +5266,19 @@
         <v>1512197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1492806</v>
+        <v>1491261</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1530021</v>
+        <v>1530540</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9364289204076236</v>
+        <v>0.9364289204076235</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.924420772322504</v>
+        <v>0.9234643168297195</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9474667118492649</v>
+        <v>0.9477876904541479</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>56765</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44849</v>
+        <v>42422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73268</v>
+        <v>71226</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05742749877239036</v>
+        <v>0.05742749877239035</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04537207853124817</v>
+        <v>0.0429174778005749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07412348623012976</v>
+        <v>0.0720570184025783</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -5391,19 +5391,19 @@
         <v>95626</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80998</v>
+        <v>79652</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112081</v>
+        <v>113079</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08545359223846771</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07238122662169046</v>
+        <v>0.07117884830819236</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1001577241386528</v>
+        <v>0.101049680071789</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>217</v>
@@ -5412,19 +5412,19 @@
         <v>152391</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>134806</v>
+        <v>133594</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>175415</v>
+        <v>173563</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07230879365818814</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06396500725386464</v>
+        <v>0.06338958293676779</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08323366595467996</v>
+        <v>0.08235478972223553</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>931696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>915193</v>
+        <v>917235</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>943612</v>
+        <v>946039</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9425725012276095</v>
+        <v>0.9425725012276096</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9258765137698709</v>
+        <v>0.9279429815974216</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.954627921468752</v>
+        <v>0.9570825221994251</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1413</v>
@@ -5462,19 +5462,19 @@
         <v>1023415</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1006960</v>
+        <v>1005962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1038043</v>
+        <v>1039389</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9145464077615324</v>
+        <v>0.9145464077615323</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8998422758613471</v>
+        <v>0.8989503199282114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9276187733783094</v>
+        <v>0.9288211516918077</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2349</v>
@@ -5483,19 +5483,19 @@
         <v>1955111</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1932087</v>
+        <v>1933939</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1972696</v>
+        <v>1973908</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9276912063418117</v>
+        <v>0.9276912063418118</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9167663340453203</v>
+        <v>0.9176452102777646</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9360349927461354</v>
+        <v>0.9366104170632319</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>184452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>157441</v>
+        <v>157665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>211521</v>
+        <v>209870</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05226604053810154</v>
+        <v>0.05226604053810156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04461243528177447</v>
+        <v>0.04467593241360743</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0599363896528598</v>
+        <v>0.05946872845355478</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>462</v>
@@ -5608,19 +5608,19 @@
         <v>278150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>254984</v>
+        <v>253939</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>304431</v>
+        <v>304654</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07456401324854876</v>
+        <v>0.07456401324854875</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06835394631472304</v>
+        <v>0.06807368604966044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0816093578715457</v>
+        <v>0.08166893341517864</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>671</v>
@@ -5629,19 +5629,19 @@
         <v>462601</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>425735</v>
+        <v>426285</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>502262</v>
+        <v>500697</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06372411909316227</v>
+        <v>0.06372411909316228</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05864573854842128</v>
+        <v>0.05872153202197104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06918739231743393</v>
+        <v>0.0689718720151057</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3344637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3317568</v>
+        <v>3319219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3371648</v>
+        <v>3371424</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9477339594618984</v>
+        <v>0.9477339594618983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9400636103471403</v>
+        <v>0.9405312715464453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9553875647182255</v>
+        <v>0.9553240675863925</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4893</v>
@@ -5679,19 +5679,19 @@
         <v>3452198</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3425917</v>
+        <v>3425694</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3475364</v>
+        <v>3476409</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9254359867514512</v>
+        <v>0.9254359867514511</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9183906421284542</v>
+        <v>0.9183310665848214</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.931646053685277</v>
+        <v>0.9319263139503395</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8056</v>
@@ -5700,19 +5700,19 @@
         <v>6796837</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6757176</v>
+        <v>6758741</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6833703</v>
+        <v>6833153</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9362758809068378</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9308126076825658</v>
+        <v>0.9310281279848942</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9413542614515789</v>
+        <v>0.9412784679780288</v>
       </c>
     </row>
     <row r="18">
